--- a/public/excel_templates/category_template.xlsx
+++ b/public/excel_templates/category_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp 8.2\htdocs\MaxVita_WMS\public\excel_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp8.2\htdocs\MaxVita\public\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A089F984-E8D4-4417-90C7-0786B07BC632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EF0C61-3F7C-48E9-B7B8-795ED9153F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{92235569-3E70-485B-9534-60C57C4FCF83}"/>
+    <workbookView xWindow="2088" yWindow="1932" windowWidth="14724" windowHeight="8880" xr2:uid="{92235569-3E70-485B-9534-60C57C4FCF83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,8 +66,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="8"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -99,10 +106,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179B2732-6597-4CF1-85DF-A62918823587}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,9 +445,12 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
